--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7035" tabRatio="615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7035" tabRatio="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Dimensions" sheetId="2" r:id="rId1"/>
-    <sheet name="Measures" sheetId="1" r:id="rId2"/>
-    <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Measures (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Dimensions (2)" sheetId="5" r:id="rId5"/>
-    <sheet name="Variables (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Measures" sheetId="4" r:id="rId1"/>
+    <sheet name="Dimensions" sheetId="5" r:id="rId2"/>
+    <sheet name="Variables" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -218,24 +215,6 @@
   </si>
   <si>
     <t>Max([Expression3])</t>
-  </si>
-  <si>
-    <t>Avg of Valor</t>
-  </si>
-  <si>
-    <t>Avg({&lt;[Ano] = {"$(=$(vMaxAno))"}&gt;} Valor)</t>
-  </si>
-  <si>
-    <t>Valor Médio $(=$(vCY_Label))</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>% Valor Médio CY</t>
-  </si>
-  <si>
-    <t>% Valor Médio</t>
   </si>
 </sst>
 </file>
@@ -271,10 +250,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,186 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1063,12 +864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
